--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_6_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_6_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.878279753952938e-10</v>
+        <v>1.591366224351631e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>1.878279753952938e-10</v>
+        <v>1.591366224351631e-07</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>52.87185711093058</v>
+        <v>45.53646573247122</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[39.73749683354282, 66.00621738831833]</t>
+          <t>[30.675961806222297, 60.396969658720145]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>2.404041410386526e-10</v>
+        <v>1.735213426279358e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>2.404041410386526e-10</v>
+        <v>1.735213426279358e-07</v>
       </c>
       <c r="P2" t="n">
-        <v>1.616395018964117</v>
+        <v>1.515763422452734</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.3396581285578089, 1.8931319093704255]</t>
+          <t>[1.1132370364071944, 1.9182898084982734]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>1.397336246711234e-09</v>
       </c>
       <c r="S2" t="n">
-        <v>2.442490654175344e-15</v>
+        <v>1.397336246711234e-09</v>
       </c>
       <c r="T2" t="n">
-        <v>58.62226928475853</v>
+        <v>56.66223100531182</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[50.05107945630878, 67.19345911320829]</t>
+          <t>[47.026234100624606, 66.29822790999904]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.998401444325282e-15</v>
       </c>
       <c r="X2" t="n">
-        <v>17.74412412412435</v>
+        <v>18.19503503503527</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.69191191191212</v>
+        <v>16.65877877877899</v>
       </c>
       <c r="Z2" t="n">
-        <v>18.79633633633657</v>
+        <v>19.73129129129154</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>4.744794113165085e-09</v>
+        <v>8.905145942872394e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>4.744794113165085e-09</v>
+        <v>8.905145942872394e-08</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>59.78069377121757</v>
+        <v>56.74225464502296</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[42.67481656624766, 76.88657097618749]</t>
+          <t>[37.40439081516, 76.08011847488592]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>8.926450245638762e-09</v>
+        <v>4.247852452010648e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>8.926450245638762e-09</v>
+        <v>4.247852452010648e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.553500271144503</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2264475824825025, 1.8805529598065034]</t>
+          <t>[1.2893423303021168, 2.0943951023931957]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>2.042366276100438e-12</v>
+        <v>7.314993055729246e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>2.042366276100438e-12</v>
+        <v>7.314993055729246e-11</v>
       </c>
       <c r="T3" t="n">
-        <v>56.87731103912819</v>
+        <v>57.52361363964329</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.96203254075425, 67.79258953750212]</t>
+          <t>[45.82041499010087, 69.2268122891857]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>1.119104808822158e-13</v>
+        <v>7.125411372044255e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>1.119104808822158e-13</v>
+        <v>7.125411372044255e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>17.98326326326348</v>
+        <v>17.52292292292315</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.73973973973994</v>
+        <v>15.98666666666687</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.22678678678702</v>
+        <v>19.05917917917943</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>7.285566816506162e-09</v>
+        <v>2.948714716843881e-08</v>
       </c>
       <c r="I4" t="n">
-        <v>7.285566816506162e-09</v>
+        <v>2.948714716843881e-08</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>59.12052318008083</v>
+        <v>53.36623733456896</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[41.678320170199, 76.56272618996266]</t>
+          <t>[34.78204658543726, 71.95042808370067]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1.841559016391159e-08</v>
+        <v>6.533582299628193e-07</v>
       </c>
       <c r="O4" t="n">
-        <v>1.841559016391159e-08</v>
+        <v>6.533582299628193e-07</v>
       </c>
       <c r="P4" t="n">
-        <v>1.478026573760964</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.1383949355350405, 1.8176582119868874]</t>
+          <t>[1.478026573760963, 2.23276354759635]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>2.72808442502992e-11</v>
+        <v>7.058797990566745e-13</v>
       </c>
       <c r="S4" t="n">
-        <v>2.72808442502992e-11</v>
+        <v>7.058797990566745e-13</v>
       </c>
       <c r="T4" t="n">
-        <v>61.87865246322258</v>
+        <v>54.38513817205492</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[50.90336766722481, 72.85393725922034]</t>
+          <t>[43.88763319412297, 64.88264314998688]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>1.35003119794419e-13</v>
       </c>
       <c r="W4" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>1.35003119794419e-13</v>
       </c>
       <c r="X4" t="n">
-        <v>18.27023023023046</v>
+        <v>16.89881881881904</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.97887887887909</v>
+        <v>15.45857857857878</v>
       </c>
       <c r="Z4" t="n">
-        <v>19.56158158158182</v>
+        <v>18.3390590590593</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1.442140586882523e-05</v>
+        <v>5.803756364386459e-10</v>
       </c>
       <c r="I5" t="n">
-        <v>1.442140586882523e-05</v>
+        <v>5.803756364386459e-10</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>42.57876682150716</v>
+        <v>59.24526823242874</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[21.794160028372282, 63.363373614642036]</t>
+          <t>[43.346193975558705, 75.14434248929877]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>0.0001572345558602528</v>
+        <v>1.826634399293425e-09</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0001572345558602528</v>
+        <v>1.826634399293425e-09</v>
       </c>
       <c r="P5" t="n">
-        <v>1.968605606753965</v>
+        <v>1.654131867655887</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.4277107755052718, 2.5095004380026573]</t>
+          <t>[1.3522370781217328, 1.9560266571900415]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>3.305975271317152e-09</v>
+        <v>2.176037128265307e-14</v>
       </c>
       <c r="S5" t="n">
-        <v>3.305975271317152e-09</v>
+        <v>2.176037128265307e-14</v>
       </c>
       <c r="T5" t="n">
-        <v>51.77473599521581</v>
+        <v>57.66746739849875</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[40.5093932469136, 63.04007874351802]</t>
+          <t>[47.64878101450371, 67.68615378249379]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>5.520250923041203e-12</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="W5" t="n">
-        <v>5.520250923041203e-12</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="X5" t="n">
-        <v>16.40494494494515</v>
+        <v>17.66694694694717</v>
       </c>
       <c r="Y5" t="n">
-        <v>14.34834834834853</v>
+        <v>16.51475475475497</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.46154154154177</v>
+        <v>18.81913913913938</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.560241557396758e-06</v>
+        <v>1.063813627188992e-07</v>
       </c>
       <c r="I6" t="n">
-        <v>1.560241557396758e-06</v>
+        <v>1.063813627188992e-07</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>50.41797105626761</v>
+        <v>47.31009754195681</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[30.695211389625, 70.14073072291022]</t>
+          <t>[32.08123271068154, 62.538962373232074]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>5.597627917852677e-06</v>
+        <v>1.295796201450372e-07</v>
       </c>
       <c r="O6" t="n">
-        <v>5.597627917852677e-06</v>
+        <v>1.295796201450372e-07</v>
       </c>
       <c r="P6" t="n">
-        <v>1.792500312859041</v>
+        <v>1.578658170272349</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.3145002294299646, 2.270500396288118]</t>
+          <t>[1.2012896833546556, 1.9560266571900424]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>8.346701108052912e-11</v>
       </c>
       <c r="S6" t="n">
-        <v>1.554351980459501e-09</v>
+        <v>8.346701108052912e-11</v>
       </c>
       <c r="T6" t="n">
-        <v>52.28861093143711</v>
+        <v>55.43543997271819</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[40.439559831477034, 64.13766203139718]</t>
+          <t>[45.599720636228, 65.27115930920837]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>1.82487358557637e-11</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="W6" t="n">
-        <v>1.82487358557637e-11</v>
+        <v>8.43769498715119e-15</v>
       </c>
       <c r="X6" t="n">
-        <v>17.07453453453475</v>
+        <v>17.95499499499522</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.25707707707727</v>
+        <v>16.51475475475496</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.89199199199222</v>
+        <v>19.39523523523549</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.667267128802052e-07</v>
+        <v>1.942553393696755e-06</v>
       </c>
       <c r="I7" t="n">
-        <v>1.667267128802052e-07</v>
+        <v>1.942553393696755e-06</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>47.91327427417539</v>
+        <v>45.75084809287657</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[30.617458443010463, 65.20909010534031]</t>
+          <t>[27.095553446698943, 64.40614273905419]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.308451967441115e-06</v>
+        <v>1.125083435526975e-05</v>
       </c>
       <c r="O7" t="n">
-        <v>1.308451967441115e-06</v>
+        <v>1.125083435526975e-05</v>
       </c>
       <c r="P7" t="n">
-        <v>1.767342413731195</v>
+        <v>1.717026615475503</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.3522370781217337, 2.182447749340657]</t>
+          <t>[1.2516054816103486, 2.1824477493406578]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>5.092415378271653e-11</v>
+        <v>2.354027639484002e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>5.092415378271653e-11</v>
+        <v>2.354027639484002e-09</v>
       </c>
       <c r="T7" t="n">
-        <v>55.01029150580333</v>
+        <v>54.04494574875036</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[44.87474246152411, 65.14584055008255]</t>
+          <t>[43.1553814003898, 64.93451009711092]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>2.97539770599542e-14</v>
+        <v>5.264677582772492e-13</v>
       </c>
       <c r="W7" t="n">
-        <v>2.97539770599542e-14</v>
+        <v>5.264677582772492e-13</v>
       </c>
       <c r="X7" t="n">
-        <v>17.1701901901904</v>
+        <v>17.42690690690713</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.59187187187206</v>
+        <v>15.65061061061081</v>
       </c>
       <c r="Z7" t="n">
-        <v>18.74850850850873</v>
+        <v>19.20320320320345</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>2.363050062070826e-06</v>
+        <v>4.897982019969049e-11</v>
       </c>
       <c r="I8" t="n">
-        <v>2.363050062070826e-06</v>
+        <v>4.897982019969049e-11</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>51.66591555074739</v>
+        <v>62.66894467843619</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[32.00895381766976, 71.32287728382501]</t>
+          <t>[46.404920243451144, 78.93296911342124]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>3.438181051640399e-06</v>
+        <v>7.701477233723608e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>3.438181051640399e-06</v>
+        <v>7.701477233723608e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>1.654131867655887</v>
+        <v>1.767342413731195</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.2138686329185795, 2.094395102393195]</t>
+          <t>[1.490605523324887, 2.0440793041375036]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>1.480483735605276e-09</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>1.480483735605276e-09</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>58.67448143207463</v>
+        <v>64.00670641994172</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[46.27116526264016, 71.0777976015091]</t>
+          <t>[54.29450252865939, 73.71891031122405]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>2.314148872528676e-12</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>2.314148872528676e-12</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>17.60064064064086</v>
+        <v>17.2348748748751</v>
       </c>
       <c r="Y8" t="n">
-        <v>15.92666666666687</v>
+        <v>16.17869869869891</v>
       </c>
       <c r="Z8" t="n">
-        <v>19.27461461461485</v>
+        <v>18.29105105105129</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.8900000000003</v>
+        <v>23.98000000000031</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.349445444276398e-08</v>
+        <v>1.891747053706094e-05</v>
       </c>
       <c r="I9" t="n">
-        <v>1.349445444276398e-08</v>
+        <v>1.891747053706094e-05</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>64.51440517949054</v>
+        <v>40.35455045090148</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[42.72897521259918, 86.2998351463819]</t>
+          <t>[21.450320916271828, 59.25877998553113]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>3.525394816072946e-07</v>
+        <v>9.072625621309172e-05</v>
       </c>
       <c r="O9" t="n">
-        <v>3.525394816072946e-07</v>
+        <v>9.072625621309172e-05</v>
       </c>
       <c r="P9" t="n">
-        <v>1.905710858934349</v>
+        <v>1.754763464167272</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 2.295658295415965]</t>
+          <t>[1.2012896833546556, 2.308237244979889]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.515410598874951e-13</v>
+        <v>8.341627233399151e-08</v>
       </c>
       <c r="S9" t="n">
-        <v>8.515410598874951e-13</v>
+        <v>8.341627233399151e-08</v>
       </c>
       <c r="T9" t="n">
-        <v>56.91654477098695</v>
+        <v>59.62888415469533</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[44.64039271454908, 69.19269682742481]</t>
+          <t>[48.76662838596681, 70.49113992342384]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>4.248379426030624e-12</v>
+        <v>2.042810365310288e-14</v>
       </c>
       <c r="W9" t="n">
-        <v>4.248379426030624e-12</v>
+        <v>2.042810365310288e-14</v>
       </c>
       <c r="X9" t="n">
-        <v>16.64408408408429</v>
+        <v>17.2828828828831</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.16142142142161</v>
+        <v>15.17053053053072</v>
       </c>
       <c r="Z9" t="n">
-        <v>18.12674674674697</v>
+        <v>19.39523523523549</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.9000000000003</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.477147720281181e-08</v>
+        <v>2.220354925142054e-06</v>
       </c>
       <c r="I10" t="n">
-        <v>2.477147720281181e-08</v>
+        <v>2.220354925142054e-06</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>54.9388049636372</v>
+        <v>50.32208072777819</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[37.7226362962395, 72.15497363103489]</t>
+          <t>[31.91741199811547, 68.7267494574409]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>7.233325027833359e-08</v>
+        <v>1.673450875872007e-06</v>
       </c>
       <c r="O10" t="n">
-        <v>7.233325027833359e-08</v>
+        <v>1.673450875872007e-06</v>
       </c>
       <c r="P10" t="n">
-        <v>1.691868716347656</v>
+        <v>1.540921321580579</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.3270791789938858, 2.0566582537014266]</t>
+          <t>[1.0880791372793475, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>4.205080728070243e-12</v>
+        <v>1.680733840991877e-08</v>
       </c>
       <c r="S10" t="n">
-        <v>4.205080728070243e-12</v>
+        <v>1.680733840991877e-08</v>
       </c>
       <c r="T10" t="n">
-        <v>58.57723419492378</v>
+        <v>59.25120336806009</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.85332342717119, 69.30114496267636]</t>
+          <t>[47.27161426367506, 71.23079247244512]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>2.398081733190338e-14</v>
+        <v>5.861977570020827e-13</v>
       </c>
       <c r="W10" t="n">
-        <v>2.398081733190338e-14</v>
+        <v>5.861977570020827e-13</v>
       </c>
       <c r="X10" t="n">
-        <v>17.46446446446468</v>
+        <v>17.85749749749769</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.07687687687708</v>
+        <v>16.15227227227245</v>
       </c>
       <c r="Z10" t="n">
-        <v>18.85205205205229</v>
+        <v>19.56272272272294</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.9000000000003</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>8.374612415540383e-06</v>
+        <v>5.21552678822701e-09</v>
       </c>
       <c r="I11" t="n">
-        <v>8.374612415540383e-06</v>
+        <v>5.21552678822701e-09</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>48.37853728421193</v>
+        <v>50.83556632726996</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[28.807902143302996, 67.94917242512086]</t>
+          <t>[33.737566768383516, 67.9335658861564]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>9.869777423787696e-06</v>
+        <v>3.249680884387374e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>9.869777423787696e-06</v>
+        <v>3.249680884387374e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>1.566079220708426</v>
+        <v>1.956026657190042</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.0629212381515023, 2.0692372032653497]</t>
+          <t>[1.591237119836272, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.244183265303178e-07</v>
+        <v>4.418687638008123e-14</v>
       </c>
       <c r="S11" t="n">
-        <v>1.244183265303178e-07</v>
+        <v>4.418687638008123e-14</v>
       </c>
       <c r="T11" t="n">
-        <v>62.32073245762851</v>
+        <v>53.44182735921638</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[49.9060530947817, 74.73541182047532]</t>
+          <t>[44.15691184738418, 62.726742871048586]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>3.679279103607769e-13</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="W11" t="n">
-        <v>3.679279103607769e-13</v>
+        <v>4.218847493575595e-15</v>
       </c>
       <c r="X11" t="n">
-        <v>17.94294294294316</v>
+        <v>16.29437437437455</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.02902902902922</v>
+        <v>14.92072072072088</v>
       </c>
       <c r="Z11" t="n">
-        <v>19.8568568568571</v>
+        <v>17.66802802802822</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.9000000000003</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>2.398404695846956e-06</v>
+        <v>8.083733682440197e-11</v>
       </c>
       <c r="I12" t="n">
-        <v>2.398404695846956e-06</v>
+        <v>8.083733682440197e-11</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>54.4347637710583</v>
+        <v>64.22854954892125</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[32.72354464466605, 76.14598289745055]</t>
+          <t>[48.607444757273214, 79.84965434056929]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>7.792134254502869e-06</v>
+        <v>1.347741918067413e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>7.792134254502869e-06</v>
+        <v>1.347741918067413e-10</v>
       </c>
       <c r="P12" t="n">
-        <v>1.742184514603348</v>
+        <v>1.603816069400195</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.2516054816103477, 2.232763547596349]</t>
+          <t>[1.3270791789938867, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>6.053767043212588e-09</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="S12" t="n">
-        <v>6.053767043212588e-09</v>
+        <v>3.33066907387547e-15</v>
       </c>
       <c r="T12" t="n">
-        <v>68.23517468229551</v>
+        <v>57.32814543481366</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[55.15951730021153, 81.31083206437948]</t>
+          <t>[47.27124145141994, 67.38504941820739]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>1.068034549689401e-13</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="W12" t="n">
-        <v>1.068034549689401e-13</v>
+        <v>5.773159728050814e-15</v>
       </c>
       <c r="X12" t="n">
-        <v>17.27307307307329</v>
+        <v>17.62066066066085</v>
       </c>
       <c r="Y12" t="n">
-        <v>15.4070070070072</v>
+        <v>16.57857857857876</v>
       </c>
       <c r="Z12" t="n">
-        <v>19.13913913913938</v>
+        <v>18.66274274274295</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.9000000000003</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>6.582895784035259e-08</v>
+        <v>8.274990552781247e-07</v>
       </c>
       <c r="I13" t="n">
-        <v>6.582895784035259e-08</v>
+        <v>8.274990552781247e-07</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>48.50937523016032</v>
+        <v>50.86046598211599</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[31.04083896027805, 65.97791150004258]</t>
+          <t>[29.976970890704678, 71.7439610735273]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.249575876105524e-06</v>
+        <v>1.260392966551116e-05</v>
       </c>
       <c r="O13" t="n">
-        <v>1.249575876105524e-06</v>
+        <v>1.260392966551116e-05</v>
       </c>
       <c r="P13" t="n">
-        <v>1.817658211986887</v>
+        <v>1.880552959806503</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.4402897250691948, 2.19502669890458]</t>
+          <t>[1.4402897250691957, 2.320816194543811]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.333155807969888e-12</v>
+        <v>4.645062112729192e-11</v>
       </c>
       <c r="S13" t="n">
-        <v>1.333155807969888e-12</v>
+        <v>4.645062112729192e-11</v>
       </c>
       <c r="T13" t="n">
-        <v>50.64365449142404</v>
+        <v>53.74701852007279</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[40.78321296996313, 60.50409601288496]</t>
+          <t>[42.20645164427024, 65.28758539587534]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>1.780797731498751e-13</v>
+        <v>3.711919660531748e-12</v>
       </c>
       <c r="W13" t="n">
-        <v>1.780797731498751e-13</v>
+        <v>3.711919660531748e-12</v>
       </c>
       <c r="X13" t="n">
-        <v>16.9859859859862</v>
+        <v>16.57857857857876</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.55055055055075</v>
+        <v>14.92072072072088</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.42142142142165</v>
+        <v>18.23643643643663</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.9000000000003</v>
+        <v>23.66000000000026</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.968654553876405e-07</v>
+        <v>3.351827257858098e-06</v>
       </c>
       <c r="I14" t="n">
-        <v>3.968654553876405e-07</v>
+        <v>3.351827257858098e-06</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>48.96367701199561</v>
+        <v>52.02754593609544</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[29.053995880941756, 68.87335814304947]</t>
+          <t>[28.06538091071744, 75.98971096147343]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>1.074632243125428e-05</v>
+        <v>7.167369416083424e-05</v>
       </c>
       <c r="O14" t="n">
-        <v>1.074632243125428e-05</v>
+        <v>7.167369416083424e-05</v>
       </c>
       <c r="P14" t="n">
-        <v>1.943447707626118</v>
+        <v>2.132131951084965</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.515763422452732, 2.371131992799503]</t>
+          <t>[1.6792897667837332, 2.5849741353861964]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>7.731815188094515e-12</v>
+        <v>2.669642285013651e-12</v>
       </c>
       <c r="S14" t="n">
-        <v>7.731815188094515e-12</v>
+        <v>2.669642285013651e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>53.64693506008266</v>
+        <v>65.08366406982026</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[42.86621966675109, 64.42765045341423]</t>
+          <t>[52.388748378011925, 77.77857976162859]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>4.845013279464183e-13</v>
+        <v>1.887379141862766e-13</v>
       </c>
       <c r="W14" t="n">
-        <v>4.845013279464183e-13</v>
+        <v>1.887379141862766e-13</v>
       </c>
       <c r="X14" t="n">
-        <v>16.50750750750771</v>
+        <v>15.6312312312314</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.88068068068087</v>
+        <v>13.92600600600616</v>
       </c>
       <c r="Z14" t="n">
-        <v>18.13433433433456</v>
+        <v>17.33645645645665</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_6_square_05_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_05/cosinor_per_day_fixed_period_6_square_05_.xlsx
@@ -581,69 +581,69 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>1.591366224351631e-07</v>
+        <v>1.887267342626231e-06</v>
       </c>
       <c r="I2" t="n">
-        <v>1.591366224351631e-07</v>
+        <v>1.887267342626231e-06</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>45.53646573247122</v>
+        <v>50.6188921227456</v>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>[30.675961806222297, 60.396969658720145]</t>
+          <t>[30.191056978041956, 71.04672726744924]</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1.735213426279358e-07</v>
+        <v>9.484524014391482e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.735213426279358e-07</v>
+        <v>9.484524014391482e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.515763422452734</v>
+        <v>1.427710775505271</v>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[1.1132370364071944, 1.9182898084982734]</t>
+          <t>[0.9622896416401172, 1.8931319093704246]</t>
         </is>
       </c>
       <c r="R2" t="n">
-        <v>1.397336246711234e-09</v>
+        <v>1.696106781690077e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>1.397336246711234e-09</v>
+        <v>1.696106781690077e-07</v>
       </c>
       <c r="T2" t="n">
-        <v>56.66223100531182</v>
+        <v>66.25104748127181</v>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>[47.026234100624606, 66.29822790999904]</t>
+          <t>[54.232000817582815, 78.27009414496081]</t>
         </is>
       </c>
       <c r="V2" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="W2" t="n">
-        <v>1.998401444325282e-15</v>
+        <v>1.77635683940025e-14</v>
       </c>
       <c r="X2" t="n">
-        <v>18.19503503503527</v>
+        <v>18.4692692692695</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.65877877877899</v>
+        <v>16.69889889889911</v>
       </c>
       <c r="Z2" t="n">
-        <v>19.73129129129154</v>
+        <v>20.23963963963989</v>
       </c>
     </row>
     <row r="3">
@@ -667,69 +667,69 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G3" t="n">
         <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>8.905145942872394e-08</v>
+        <v>2.829427123707262e-07</v>
       </c>
       <c r="I3" t="n">
-        <v>8.905145942872394e-08</v>
+        <v>2.829427123707262e-07</v>
       </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
-        <v>56.74225464502296</v>
+        <v>57.31505206303577</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>[37.40439081516, 76.08011847488592]</t>
+          <t>[37.22421749380341, 77.40588663226814]</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>4.247852452010648e-07</v>
+        <v>7.433067401585447e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>4.247852452010648e-07</v>
+        <v>7.433067401585447e-07</v>
       </c>
       <c r="P3" t="n">
-        <v>1.691868716347656</v>
+        <v>1.641552918091964</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1.2893423303021168, 2.0943951023931957]</t>
+          <t>[1.2264475824825016, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>7.314993055729246e-11</v>
+        <v>3.877975718324933e-10</v>
       </c>
       <c r="S3" t="n">
-        <v>7.314993055729246e-11</v>
+        <v>3.877975718324933e-10</v>
       </c>
       <c r="T3" t="n">
-        <v>57.52361363964329</v>
+        <v>61.12879450591549</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>[45.82041499010087, 69.2268122891857]</t>
+          <t>[48.70574066731122, 73.55184834451975]</t>
         </is>
       </c>
       <c r="V3" t="n">
-        <v>7.125411372044255e-13</v>
+        <v>6.885603198725221e-13</v>
       </c>
       <c r="W3" t="n">
-        <v>7.125411372044255e-13</v>
+        <v>6.885603198725221e-13</v>
       </c>
       <c r="X3" t="n">
-        <v>17.52292292292315</v>
+        <v>17.65585585585607</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.98666666666687</v>
+        <v>16.07687687687708</v>
       </c>
       <c r="Z3" t="n">
-        <v>19.05917917917943</v>
+        <v>19.23483483483507</v>
       </c>
     </row>
     <row r="4">
@@ -753,69 +753,69 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2.948714716843881e-08</v>
+        <v>1.069429655942145e-09</v>
       </c>
       <c r="I4" t="n">
-        <v>2.948714716843881e-08</v>
+        <v>1.069429655942145e-09</v>
       </c>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="n">
-        <v>53.36623733456896</v>
+        <v>49.69219064407064</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>[34.78204658543726, 71.95042808370067]</t>
+          <t>[36.008815151649614, 63.37556613649167]</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>6.533582299628193e-07</v>
+        <v>3.491154920709505e-09</v>
       </c>
       <c r="O4" t="n">
-        <v>6.533582299628193e-07</v>
+        <v>3.491154920709505e-09</v>
       </c>
       <c r="P4" t="n">
-        <v>1.855395060678656</v>
+        <v>1.679289766783733</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[1.478026573760963, 2.23276354759635]</t>
+          <t>[1.3648160276856558, 1.9937635058818106]</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>7.058797990566745e-13</v>
+        <v>5.062616992290714e-14</v>
       </c>
       <c r="S4" t="n">
-        <v>7.058797990566745e-13</v>
+        <v>5.062616992290714e-14</v>
       </c>
       <c r="T4" t="n">
-        <v>54.38513817205492</v>
+        <v>51.74063501468595</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>[43.88763319412297, 64.88264314998688]</t>
+          <t>[43.16404408362894, 60.31722594574296]</t>
         </is>
       </c>
       <c r="V4" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="W4" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="X4" t="n">
-        <v>16.89881881881904</v>
+        <v>17.51231231231253</v>
       </c>
       <c r="Y4" t="n">
-        <v>15.45857857857878</v>
+        <v>16.31611611611632</v>
       </c>
       <c r="Z4" t="n">
-        <v>18.3390590590593</v>
+        <v>18.70850850850874</v>
       </c>
     </row>
     <row r="5">
@@ -839,69 +839,69 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G5" t="n">
         <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>5.803756364386459e-10</v>
+        <v>7.549346539015289e-07</v>
       </c>
       <c r="I5" t="n">
-        <v>5.803756364386459e-10</v>
+        <v>7.549346539015289e-07</v>
       </c>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="n">
-        <v>59.24526823242874</v>
+        <v>46.90895850897198</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[43.346193975558705, 75.14434248929877]</t>
+          <t>[29.148917783544263, 64.66899923439969]</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1.826634399293425e-09</v>
+        <v>3.150319581202154e-06</v>
       </c>
       <c r="O5" t="n">
-        <v>1.826634399293425e-09</v>
+        <v>3.150319581202154e-06</v>
       </c>
       <c r="P5" t="n">
-        <v>1.654131867655887</v>
+        <v>1.452868674633118</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[1.3522370781217328, 1.9560266571900415]</t>
+          <t>[1.0000264903318863, 1.9057108589343494]</t>
         </is>
       </c>
       <c r="R5" t="n">
-        <v>2.176037128265307e-14</v>
+        <v>6.423172971281588e-08</v>
       </c>
       <c r="S5" t="n">
-        <v>2.176037128265307e-14</v>
+        <v>6.423172971281588e-08</v>
       </c>
       <c r="T5" t="n">
-        <v>57.66746739849875</v>
+        <v>49.36355896955681</v>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>[47.64878101450371, 67.68615378249379]</t>
+          <t>[38.71689328239873, 60.0102246567149]</t>
         </is>
       </c>
       <c r="V5" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>4.243494444722273e-12</v>
       </c>
       <c r="W5" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>4.243494444722273e-12</v>
       </c>
       <c r="X5" t="n">
-        <v>17.66694694694717</v>
+        <v>18.3735735735738</v>
       </c>
       <c r="Y5" t="n">
-        <v>16.51475475475497</v>
+        <v>16.65105105105125</v>
       </c>
       <c r="Z5" t="n">
-        <v>18.81913913913938</v>
+        <v>20.09609609609635</v>
       </c>
     </row>
     <row r="6">
@@ -925,69 +925,69 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>1.063813627188992e-07</v>
+        <v>4.280701656922403e-06</v>
       </c>
       <c r="I6" t="n">
-        <v>1.063813627188992e-07</v>
+        <v>4.280701656922403e-06</v>
       </c>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="n">
-        <v>47.31009754195681</v>
+        <v>45.49704418899368</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[32.08123271068154, 62.538962373232074]</t>
+          <t>[26.603441186793418, 64.39064719119395]</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>1.295796201450372e-07</v>
+        <v>1.512783969426224e-05</v>
       </c>
       <c r="O6" t="n">
-        <v>1.295796201450372e-07</v>
+        <v>1.512783969426224e-05</v>
       </c>
       <c r="P6" t="n">
-        <v>1.578658170272349</v>
+        <v>1.70444766591158</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 1.9560266571900424]</t>
+          <t>[1.2138686329185804, 2.19502669890458]</t>
         </is>
       </c>
       <c r="R6" t="n">
-        <v>8.346701108052912e-11</v>
+        <v>1.026958340588635e-08</v>
       </c>
       <c r="S6" t="n">
-        <v>8.346701108052912e-11</v>
+        <v>1.026958340588635e-08</v>
       </c>
       <c r="T6" t="n">
-        <v>55.43543997271819</v>
+        <v>55.8488223634297</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>[45.599720636228, 65.27115930920837]</t>
+          <t>[44.595885689056914, 67.1017590378025]</t>
         </is>
       </c>
       <c r="V6" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>5.264677582772492e-13</v>
       </c>
       <c r="W6" t="n">
-        <v>8.43769498715119e-15</v>
+        <v>5.264677582772492e-13</v>
       </c>
       <c r="X6" t="n">
-        <v>17.95499499499522</v>
+        <v>17.41661661661683</v>
       </c>
       <c r="Y6" t="n">
-        <v>16.51475475475496</v>
+        <v>15.55055055055074</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.39523523523549</v>
+        <v>19.28268268268291</v>
       </c>
     </row>
     <row r="7">
@@ -1011,69 +1011,69 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>1.942553393696755e-06</v>
+        <v>9.491978639752929e-07</v>
       </c>
       <c r="I7" t="n">
-        <v>1.942553393696755e-06</v>
+        <v>9.491978639752929e-07</v>
       </c>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
-        <v>45.75084809287657</v>
+        <v>58.02587914013807</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>[27.095553446698943, 64.40614273905419]</t>
+          <t>[36.17670351208531, 79.87505476819082]</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>1.125083435526975e-05</v>
+        <v>2.855221970854416e-06</v>
       </c>
       <c r="O7" t="n">
-        <v>1.125083435526975e-05</v>
+        <v>2.855221970854416e-06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.717026615475503</v>
+        <v>1.754763464167271</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[1.2516054816103486, 2.1824477493406578]</t>
+          <t>[1.2893423303021159, 2.220184598032427]</t>
         </is>
       </c>
       <c r="R7" t="n">
-        <v>2.354027639484002e-09</v>
+        <v>1.353807732584755e-09</v>
       </c>
       <c r="S7" t="n">
-        <v>2.354027639484002e-09</v>
+        <v>1.353807732584755e-09</v>
       </c>
       <c r="T7" t="n">
-        <v>54.04494574875036</v>
+        <v>61.40729920462883</v>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>[43.1553814003898, 64.93451009711092]</t>
+          <t>[48.09268148756668, 74.72191692169098]</t>
         </is>
       </c>
       <c r="V7" t="n">
-        <v>5.264677582772492e-13</v>
+        <v>4.973355061110851e-12</v>
       </c>
       <c r="W7" t="n">
-        <v>5.264677582772492e-13</v>
+        <v>4.973355061110851e-12</v>
       </c>
       <c r="X7" t="n">
-        <v>17.42690690690713</v>
+        <v>17.22522522522544</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.65061061061081</v>
+        <v>15.45485485485504</v>
       </c>
       <c r="Z7" t="n">
-        <v>19.20320320320345</v>
+        <v>18.99559559559584</v>
       </c>
     </row>
     <row r="8">
@@ -1097,69 +1097,69 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
       </c>
       <c r="H8" t="n">
-        <v>4.897982019969049e-11</v>
+        <v>2.673590238089218e-10</v>
       </c>
       <c r="I8" t="n">
-        <v>4.897982019969049e-11</v>
+        <v>2.673590238089218e-10</v>
       </c>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
-        <v>62.66894467843619</v>
+        <v>60.42310413512673</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>[46.404920243451144, 78.93296911342124]</t>
+          <t>[45.09514623824792, 75.75106203200554]</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>7.701477233723608e-10</v>
+        <v>4.220501725882286e-10</v>
       </c>
       <c r="O8" t="n">
-        <v>7.701477233723608e-10</v>
+        <v>4.220501725882286e-10</v>
       </c>
       <c r="P8" t="n">
-        <v>1.767342413731195</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[1.490605523324887, 2.0440793041375036]</t>
+          <t>[1.301921279866039, 1.8805529598065034]</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>1.909583602355269e-14</v>
       </c>
       <c r="T8" t="n">
-        <v>64.00670641994172</v>
+        <v>58.49241126299913</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>[54.29450252865939, 73.71891031122405]</t>
+          <t>[48.570603623872174, 68.41421890212608]</t>
         </is>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="X8" t="n">
-        <v>17.2348748748751</v>
+        <v>17.84724724724747</v>
       </c>
       <c r="Y8" t="n">
-        <v>16.17869869869891</v>
+        <v>16.74674674674695</v>
       </c>
       <c r="Z8" t="n">
-        <v>18.29105105105129</v>
+        <v>18.94774774774799</v>
       </c>
     </row>
     <row r="9">
@@ -1183,69 +1183,69 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>23.98000000000031</v>
+        <v>23.9000000000003</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
       </c>
       <c r="H9" t="n">
-        <v>1.891747053706094e-05</v>
+        <v>1.962490170370756e-10</v>
       </c>
       <c r="I9" t="n">
-        <v>1.891747053706094e-05</v>
+        <v>1.962490170370756e-10</v>
       </c>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
-        <v>40.35455045090148</v>
+        <v>61.95269717254374</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>[21.450320916271828, 59.25877998553113]</t>
+          <t>[44.12031470877399, 79.7850796363135]</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>9.072625621309172e-05</v>
+        <v>1.02830612913607e-08</v>
       </c>
       <c r="O9" t="n">
-        <v>9.072625621309172e-05</v>
+        <v>1.02830612913607e-08</v>
       </c>
       <c r="P9" t="n">
-        <v>1.754763464167272</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 2.308237244979889]</t>
+          <t>[1.5409213215805773, 2.169868799776734]</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>8.341627233399151e-08</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="S9" t="n">
-        <v>8.341627233399151e-08</v>
+        <v>1.77635683940025e-15</v>
       </c>
       <c r="T9" t="n">
-        <v>59.62888415469533</v>
+        <v>58.39441784238925</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>[48.76662838596681, 70.49113992342384]</t>
+          <t>[48.33027386891513, 68.45856181586338]</t>
         </is>
       </c>
       <c r="V9" t="n">
-        <v>2.042810365310288e-14</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="W9" t="n">
-        <v>2.042810365310288e-14</v>
+        <v>3.108624468950438e-15</v>
       </c>
       <c r="X9" t="n">
-        <v>17.2828828828831</v>
+        <v>16.84244244244266</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.17053053053072</v>
+        <v>15.64624624624644</v>
       </c>
       <c r="Z9" t="n">
-        <v>19.39523523523549</v>
+        <v>18.03863863863887</v>
       </c>
     </row>
     <row r="10">
@@ -1269,69 +1269,69 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>23.66000000000026</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G10" t="n">
         <v>1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.220354925142054e-06</v>
+        <v>2.967754419991309e-08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.220354925142054e-06</v>
+        <v>2.967754419991309e-08</v>
       </c>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="n">
-        <v>50.32208072777819</v>
+        <v>53.02634566444819</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>[31.91741199811547, 68.7267494574409]</t>
+          <t>[35.534196530756674, 70.51849479813971]</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>1.673450875872007e-06</v>
+        <v>2.175754372224503e-07</v>
       </c>
       <c r="O10" t="n">
-        <v>1.673450875872007e-06</v>
+        <v>2.175754372224503e-07</v>
       </c>
       <c r="P10" t="n">
-        <v>1.540921321580579</v>
+        <v>1.729605565039425</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1.0880791372793475, 1.9937635058818106]</t>
+          <t>[1.3648160276856558, 2.094395102393195]</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.680733840991877e-08</v>
+        <v>2.158717649081154e-12</v>
       </c>
       <c r="S10" t="n">
-        <v>1.680733840991877e-08</v>
+        <v>2.158717649081154e-12</v>
       </c>
       <c r="T10" t="n">
-        <v>59.25120336806009</v>
+        <v>58.11293380295577</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>[47.27161426367506, 71.23079247244512]</t>
+          <t>[47.66019647191226, 68.56567113399927]</t>
         </is>
       </c>
       <c r="V10" t="n">
-        <v>5.861977570020827e-13</v>
+        <v>1.332267629550188e-14</v>
       </c>
       <c r="W10" t="n">
-        <v>5.861977570020827e-13</v>
+        <v>1.332267629550188e-14</v>
       </c>
       <c r="X10" t="n">
-        <v>17.85749749749769</v>
+        <v>17.44412412412436</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.15227227227245</v>
+        <v>16.04666666666689</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.56272272272294</v>
+        <v>18.84158158158183</v>
       </c>
     </row>
     <row r="11">
@@ -1355,69 +1355,69 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>23.66000000000026</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>5.21552678822701e-09</v>
+        <v>2.006431243373186e-08</v>
       </c>
       <c r="I11" t="n">
-        <v>5.21552678822701e-09</v>
+        <v>2.006431243373186e-08</v>
       </c>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="n">
-        <v>50.83556632726996</v>
+        <v>53.98646996010741</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>[33.737566768383516, 67.9335658861564]</t>
+          <t>[35.71401139820418, 72.25892852201063]</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.249680884387374e-07</v>
+        <v>3.695000656556147e-07</v>
       </c>
       <c r="O11" t="n">
-        <v>3.249680884387374e-07</v>
+        <v>3.695000656556147e-07</v>
       </c>
       <c r="P11" t="n">
-        <v>1.956026657190042</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1.591237119836272, 2.320816194543811]</t>
+          <t>[1.478026573760964, 2.182447749340657]</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.418687638008123e-14</v>
+        <v>1.223465773136923e-13</v>
       </c>
       <c r="S11" t="n">
-        <v>4.418687638008123e-14</v>
+        <v>1.223465773136923e-13</v>
       </c>
       <c r="T11" t="n">
-        <v>53.44182735921638</v>
+        <v>54.36783946783536</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>[44.15691184738418, 62.726742871048586]</t>
+          <t>[43.899312496570396, 64.83636643910032]</t>
         </is>
       </c>
       <c r="V11" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>1.247890679678676e-13</v>
       </c>
       <c r="W11" t="n">
-        <v>4.218847493575595e-15</v>
+        <v>1.247890679678676e-13</v>
       </c>
       <c r="X11" t="n">
-        <v>16.29437437437455</v>
+        <v>17.05861861861885</v>
       </c>
       <c r="Y11" t="n">
-        <v>14.92072072072088</v>
+        <v>15.70934934934956</v>
       </c>
       <c r="Z11" t="n">
-        <v>17.66802802802822</v>
+        <v>18.40788788788813</v>
       </c>
     </row>
     <row r="12">
@@ -1441,69 +1441,69 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>23.66000000000026</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
       </c>
       <c r="H12" t="n">
-        <v>8.083733682440197e-11</v>
+        <v>1.710192776283037e-08</v>
       </c>
       <c r="I12" t="n">
-        <v>8.083733682440197e-11</v>
+        <v>1.710192776283037e-08</v>
       </c>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
-        <v>64.22854954892125</v>
+        <v>53.15897110860239</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>[48.607444757273214, 79.84965434056929]</t>
+          <t>[36.46251546878004, 69.85542674842475]</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>1.347741918067413e-10</v>
+        <v>7.605356033835164e-08</v>
       </c>
       <c r="O12" t="n">
-        <v>1.347741918067413e-10</v>
+        <v>7.605356033835164e-08</v>
       </c>
       <c r="P12" t="n">
-        <v>1.603816069400195</v>
+        <v>1.691868716347656</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 1.8805529598065034]</t>
+          <t>[1.3145002294299628, 2.0692372032653497]</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.149791373222797e-11</v>
       </c>
       <c r="S12" t="n">
-        <v>3.33066907387547e-15</v>
+        <v>1.149791373222797e-11</v>
       </c>
       <c r="T12" t="n">
-        <v>57.32814543481366</v>
+        <v>54.22185099710872</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>[47.27124145141994, 67.38504941820739]</t>
+          <t>[43.973301301528814, 64.47040069268863]</t>
         </is>
       </c>
       <c r="V12" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>6.838973831690964e-14</v>
       </c>
       <c r="W12" t="n">
-        <v>5.773159728050814e-15</v>
+        <v>6.838973831690964e-14</v>
       </c>
       <c r="X12" t="n">
-        <v>17.62066066066085</v>
+        <v>17.58868868868893</v>
       </c>
       <c r="Y12" t="n">
-        <v>16.57857857857876</v>
+        <v>16.14304304304326</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.66274274274295</v>
+        <v>19.03433433433459</v>
       </c>
     </row>
     <row r="13">
@@ -1527,69 +1527,69 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>23.66000000000026</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>8.274990552781247e-07</v>
+        <v>1.44702598692259e-06</v>
       </c>
       <c r="I13" t="n">
-        <v>8.274990552781247e-07</v>
+        <v>1.44702598692259e-06</v>
       </c>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
-        <v>50.86046598211599</v>
+        <v>47.799760604235</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>[29.976970890704678, 71.7439610735273]</t>
+          <t>[30.27432834618888, 65.32519286228111]</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1.260392966551116e-05</v>
+        <v>1.752335804683369e-06</v>
       </c>
       <c r="O13" t="n">
-        <v>1.260392966551116e-05</v>
+        <v>1.752335804683369e-06</v>
       </c>
       <c r="P13" t="n">
-        <v>1.880552959806503</v>
+        <v>1.591237119836272</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1.4402897250691957, 2.320816194543811]</t>
+          <t>[1.1383949355350413, 2.0440793041375027]</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>4.645062112729192e-11</v>
+        <v>7.826108650021979e-09</v>
       </c>
       <c r="S13" t="n">
-        <v>4.645062112729192e-11</v>
+        <v>7.826108650021979e-09</v>
       </c>
       <c r="T13" t="n">
-        <v>53.74701852007279</v>
+        <v>61.19456466565639</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>[42.20645164427024, 65.28758539587534]</t>
+          <t>[49.96080348060395, 72.42832585070883]</t>
         </is>
       </c>
       <c r="V13" t="n">
-        <v>3.711919660531748e-12</v>
+        <v>2.620126338115369e-14</v>
       </c>
       <c r="W13" t="n">
-        <v>3.711919660531748e-12</v>
+        <v>2.620126338115369e-14</v>
       </c>
       <c r="X13" t="n">
-        <v>16.57857857857876</v>
+        <v>17.97419419419444</v>
       </c>
       <c r="Y13" t="n">
-        <v>14.92072072072088</v>
+        <v>16.23941941941964</v>
       </c>
       <c r="Z13" t="n">
-        <v>18.23643643643663</v>
+        <v>19.70896896896923</v>
       </c>
     </row>
     <row r="14">
@@ -1613,69 +1613,69 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>23.66000000000026</v>
+        <v>24.07000000000032</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.351827257858098e-06</v>
+        <v>5.853171103353816e-08</v>
       </c>
       <c r="I14" t="n">
-        <v>3.351827257858098e-06</v>
+        <v>5.853171103353816e-08</v>
       </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
-        <v>52.02754593609544</v>
+        <v>51.68500816543126</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>[28.06538091071744, 75.98971096147343]</t>
+          <t>[33.23288143066361, 70.13713490019892]</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>7.167369416083424e-05</v>
+        <v>1.05979667930356e-06</v>
       </c>
       <c r="O14" t="n">
-        <v>7.167369416083424e-05</v>
+        <v>1.05979667930356e-06</v>
       </c>
       <c r="P14" t="n">
-        <v>2.132131951084965</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1.6792897667837332, 2.5849741353861964]</t>
+          <t>[1.4654476241970409, 2.245342497160272]</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>2.669642285013651e-12</v>
+        <v>1.939559624020148e-12</v>
       </c>
       <c r="S14" t="n">
-        <v>2.669642285013651e-12</v>
+        <v>1.939559624020148e-12</v>
       </c>
       <c r="T14" t="n">
-        <v>65.08366406982026</v>
+        <v>57.17712264185823</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>[52.388748378011925, 77.77857976162859]</t>
+          <t>[46.70144811861957, 67.65279716509689]</t>
         </is>
       </c>
       <c r="V14" t="n">
-        <v>1.887379141862766e-13</v>
+        <v>2.464695114667848e-14</v>
       </c>
       <c r="W14" t="n">
-        <v>1.887379141862766e-13</v>
+        <v>2.464695114667848e-14</v>
       </c>
       <c r="X14" t="n">
-        <v>15.6312312312314</v>
+        <v>16.96224224224247</v>
       </c>
       <c r="Y14" t="n">
-        <v>13.92600600600616</v>
+        <v>15.46840840840862</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.33645645645665</v>
+        <v>18.45607607607633</v>
       </c>
     </row>
   </sheetData>
